--- a/SuRGE_Sharepoint/data/RTP/CH4_010_Okeeheelee/dataSheets/surgeData010.xlsx
+++ b/SuRGE_Sharepoint/data/RTP/CH4_010_Okeeheelee/dataSheets/surgeData010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/RTP/CH4_010_Okeeheelee/Datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="585" documentId="8_{0BD7990E-1BE6-4FDD-8925-C8344831AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A62D775-7DA3-44C2-9967-AFAA4001E7CF}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="8_{0BD7990E-1BE6-4FDD-8925-C8344831AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63A625DC-D5FF-423E-8161-CE7413632C0A}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="570" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-4830" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">data!$B$2:$BN$47</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentManualCount="4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1395,10 +1395,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1436,7 +1440,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1542,7 +1546,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1684,7 +1688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1695,85 +1699,85 @@
   <dimension ref="A1:BZ17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.54296875" customWidth="1"/>
-    <col min="20" max="20" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.453125" customWidth="1"/>
-    <col min="28" max="28" width="18.453125" customWidth="1"/>
-    <col min="29" max="29" width="10.81640625" customWidth="1"/>
-    <col min="30" max="30" width="11.1796875" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.5546875" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.44140625" customWidth="1"/>
+    <col min="28" max="28" width="18.44140625" customWidth="1"/>
+    <col min="29" max="29" width="10.77734375" customWidth="1"/>
+    <col min="30" max="30" width="11.21875" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.1796875" customWidth="1"/>
+    <col min="46" max="46" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.21875" customWidth="1"/>
     <col min="48" max="48" width="21" customWidth="1"/>
-    <col min="49" max="49" width="29.54296875" customWidth="1"/>
-    <col min="50" max="50" width="15.453125" customWidth="1"/>
-    <col min="51" max="51" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29.5546875" customWidth="1"/>
+    <col min="50" max="50" width="15.44140625" customWidth="1"/>
+    <col min="51" max="51" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="13" customWidth="1"/>
-    <col min="65" max="66" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.1796875" customWidth="1"/>
-    <col min="71" max="71" width="23.453125" customWidth="1"/>
-    <col min="75" max="75" width="13.1796875" customWidth="1"/>
-    <col min="76" max="76" width="13.54296875" customWidth="1"/>
-    <col min="77" max="77" width="16.453125" customWidth="1"/>
-    <col min="78" max="78" width="21.1796875" customWidth="1"/>
+    <col min="65" max="66" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.21875" customWidth="1"/>
+    <col min="71" max="71" width="23.44140625" customWidth="1"/>
+    <col min="75" max="75" width="13.21875" customWidth="1"/>
+    <col min="76" max="76" width="13.5546875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
+    <col min="78" max="78" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1869,7 @@
       <c r="BY1" s="33"/>
       <c r="BZ1" s="33"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -2101,7 +2105,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>186</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>0.70190972222222225</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>186</v>
       </c>
@@ -2327,7 +2331,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>186</v>
       </c>
@@ -2434,7 +2438,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>186</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>186</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>186</v>
       </c>
@@ -2670,10 +2674,10 @@
       <c r="L8" t="s">
         <v>215</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>219</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>220</v>
       </c>
       <c r="T8" t="s">
@@ -2746,7 +2750,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>186</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>186</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>186</v>
       </c>
@@ -2994,7 +2998,7 @@
       <c r="L11" t="s">
         <v>217</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>218</v>
       </c>
       <c r="T11" t="s">
@@ -3076,7 +3080,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>186</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>186</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>186</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>186</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>186</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>186</v>
       </c>
@@ -3759,15 +3763,15 @@
       <selection activeCell="A79" sqref="A1:A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.81640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="26"/>
+    <col min="1" max="1" width="17.77734375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>74</v>
       </c>
@@ -3778,7 +3782,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
@@ -3800,7 +3804,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
@@ -3833,7 +3837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
@@ -3855,7 +3859,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
@@ -3866,7 +3870,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
@@ -3877,7 +3881,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
@@ -3888,7 +3892,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>17</v>
       </c>
@@ -3910,7 +3914,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>18</v>
       </c>
@@ -3918,7 +3922,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>19</v>
       </c>
@@ -3929,7 +3933,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>20</v>
       </c>
@@ -3937,7 +3941,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>21</v>
       </c>
@@ -3948,7 +3952,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>22</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>101</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>104</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>23</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>24</v>
       </c>
@@ -3997,7 +4001,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>25</v>
       </c>
@@ -4008,7 +4012,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>26</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>27</v>
       </c>
@@ -4030,7 +4034,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>112</v>
       </c>
@@ -4041,7 +4045,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>113</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>28</v>
       </c>
@@ -4060,7 +4064,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>29</v>
       </c>
@@ -4071,7 +4075,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>30</v>
       </c>
@@ -4082,7 +4086,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>31</v>
       </c>
@@ -4093,7 +4097,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>32</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>33</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>34</v>
       </c>
@@ -4126,7 +4130,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>180</v>
       </c>
@@ -4137,7 +4141,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>35</v>
       </c>
@@ -4148,7 +4152,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>36</v>
       </c>
@@ -4156,7 +4160,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>37</v>
       </c>
@@ -4164,7 +4168,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>38</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>39</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>40</v>
       </c>
@@ -4188,7 +4192,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>182</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>41</v>
       </c>
@@ -4204,7 +4208,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
@@ -4212,7 +4216,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>44</v>
       </c>
@@ -4228,7 +4232,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>45</v>
       </c>
@@ -4236,7 +4240,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>46</v>
       </c>
@@ -4244,7 +4248,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>181</v>
       </c>
@@ -4252,7 +4256,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>47</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>48</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>49</v>
       </c>
@@ -4282,7 +4286,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>50</v>
       </c>
@@ -4293,7 +4297,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>51</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>52</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>53</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
         <v>183</v>
       </c>
@@ -4337,7 +4341,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
         <v>54</v>
       </c>
@@ -4348,7 +4352,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>55</v>
       </c>
@@ -4356,7 +4360,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>56</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>57</v>
       </c>
@@ -4372,7 +4376,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>58</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>59</v>
       </c>
@@ -4388,7 +4392,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>184</v>
       </c>
@@ -4396,7 +4400,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>60</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>61</v>
       </c>
@@ -4412,7 +4416,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>62</v>
       </c>
@@ -4420,7 +4424,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>63</v>
       </c>
@@ -4428,7 +4432,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>64</v>
       </c>
@@ -4436,7 +4440,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>65</v>
       </c>
@@ -4444,7 +4448,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>185</v>
       </c>
@@ -4452,7 +4456,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>66</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>67</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>68</v>
       </c>
@@ -4482,7 +4486,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>69</v>
       </c>
@@ -4493,7 +4497,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
         <v>70</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
         <v>71</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>72</v>
       </c>
@@ -4526,7 +4530,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>73</v>
       </c>
@@ -4550,17 +4554,17 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="24"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="24"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -4576,7 +4580,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4610,7 +4614,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>173</v>
       </c>
@@ -4639,7 +4643,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>173</v>
       </c>
@@ -4668,7 +4672,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>173</v>
       </c>
@@ -4697,7 +4701,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>173</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>173</v>
       </c>
@@ -4755,7 +4759,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>173</v>
       </c>
@@ -4801,14 +4805,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4830,7 +4834,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4841,7 +4845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>154</v>
       </c>
@@ -4852,7 +4856,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>155</v>
       </c>
@@ -4863,7 +4867,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>156</v>
       </c>
@@ -4874,7 +4878,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>157</v>
       </c>
@@ -4882,7 +4886,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>158</v>
       </c>
@@ -4893,7 +4897,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>159</v>
       </c>
@@ -4904,7 +4908,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>160</v>
       </c>
@@ -4915,7 +4919,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>161</v>
       </c>
@@ -4941,45 +4945,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5454,8 +5421,45 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5467,15 +5471,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5504,9 +5502,15 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuRGE_Sharepoint/data/RTP/CH4_010_Okeeheelee/dataSheets/surgeData010.xlsx
+++ b/SuRGE_Sharepoint/data/RTP/CH4_010_Okeeheelee/dataSheets/surgeData010.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/RTP/CH4_010_Okeeheelee/Datasheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/RTP/CH4_010_Okeeheelee/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="8_{0BD7990E-1BE6-4FDD-8925-C8344831AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63A625DC-D5FF-423E-8161-CE7413632C0A}"/>
+  <xr:revisionPtr revIDLastSave="589" documentId="8_{0BD7990E-1BE6-4FDD-8925-C8344831AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE99591C-CE51-4FF5-9500-30CB18237D8F}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-4830" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1395,10 +1395,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1699,8 +1695,8 @@
   <dimension ref="A1:BZ17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
+      <pane xSplit="2" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BU4" sqref="BU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2205,15 +2201,6 @@
       <c r="BR3" t="s">
         <v>207</v>
       </c>
-      <c r="BT3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>223</v>
-      </c>
       <c r="BW3">
         <v>2.06</v>
       </c>
@@ -2329,6 +2316,15 @@
       </c>
       <c r="BR4" t="s">
         <v>207</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.3">
@@ -3759,7 +3755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229CFC7D-096F-4A49-B44F-3C66E059D51A}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A79" sqref="A1:A79"/>
     </sheetView>
   </sheetViews>
@@ -4937,6 +4933,11 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -4944,12 +4945,49 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5420,49 +5458,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5470,15 +5474,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1577BE7D-91DE-46C9-AF86-A9F47E304DFE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5499,18 +5509,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>